--- a/biology/Botanique/Liste_d'entreprises_du_secteur_de_la_pomme_de_terre/Liste_d'entreprises_du_secteur_de_la_pomme_de_terre.xlsx
+++ b/biology/Botanique/Liste_d'entreprises_du_secteur_de_la_pomme_de_terre/Liste_d'entreprises_du_secteur_de_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27entreprises_du_secteur_de_la_pomme_de_terre</t>
+          <t>Liste_d'entreprises_du_secteur_de_la_pomme_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette  liste d'entreprises du secteur de la pomme de terre, recense les entreprises appartenant aux branches suivantes : 
 production de fécule de pomme de terre ;
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27entreprises_du_secteur_de_la_pomme_de_terre</t>
+          <t>Liste_d'entreprises_du_secteur_de_la_pomme_de_terre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Fécule et produits dérivés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Agrana Stärke GmbH (groupe Agrana) (Autriche) ;
 AKV Langholt (Danemark) ;
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27entreprises_du_secteur_de_la_pomme_de_terre</t>
+          <t>Liste_d'entreprises_du_secteur_de_la_pomme_de_terre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Produits transformés de pomme de terre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Agristo  (Belgique) ;
 Altho (France) ;
@@ -591,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27entreprises_du_secteur_de_la_pomme_de_terre</t>
+          <t>Liste_d'entreprises_du_secteur_de_la_pomme_de_terre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -609,7 +625,9 @@
           <t>Plants de pomme de terre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Agrico (Pays-Bas) ;
 Averis Seeds (filiale d'Avebe)  (Pays-Bas) ;
